--- a/Hypothesis/hypo_pos_enterprise_trade.xlsx
+++ b/Hypothesis/hypo_pos_enterprise_trade.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="460" windowWidth="25600" windowHeight="14260" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3440" yWindow="1340" windowWidth="24560" windowHeight="13040" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="hypo_pos_enterprise_trade" sheetId="1" r:id="rId1"/>
@@ -465,7 +465,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -688,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -914,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1045,89 +1047,87 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>1981355.8473097589</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>140366.84035906292</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>14.1155549433284</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>7.7710671835632682E-9</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>1675522.7746755809</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17">
         <v>2287188.9199439371</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17">
         <v>1675522.7746755809</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
         <v>2287188.9199439371</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
         <v>-109127.91843941779</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
         <v>108836.10636135314</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18">
         <v>-1.0026812065207091</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18">
         <v>0.33580541218612414</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18">
         <v>-346261.42331056111</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18">
         <v>128005.5864317255</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18">
         <v>-346261.42331056111</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18">
         <v>128005.5864317255</v>
       </c>
     </row>

--- a/Hypothesis/hypo_pos_enterprise_trade.xlsx
+++ b/Hypothesis/hypo_pos_enterprise_trade.xlsx
@@ -1,32 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
-  <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Xiangyu/Documents/git/495-datascience-trade-predict/Hypothesis/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="1340" windowWidth="24560" windowHeight="13040" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13725" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="hypo_pos_enterprise_trade" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="export" sheetId="2" r:id="rId2"/>
+    <sheet name="import" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>year</t>
   </si>
@@ -64,6 +54,21 @@
     <t>ANOVA</t>
   </si>
   <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
     <t>Regression</t>
   </si>
   <si>
@@ -73,43 +78,28 @@
     <t>Total</t>
   </si>
   <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
     <t>Intercept</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>SS</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Significance F</t>
-  </si>
-  <si>
-    <t>Coefficients</t>
-  </si>
-  <si>
-    <t>t Stat</t>
-  </si>
-  <si>
-    <t>P-value</t>
-  </si>
-  <si>
-    <t>Lower 95%</t>
-  </si>
-  <si>
-    <t>Upper 95%</t>
-  </si>
-  <si>
-    <t>Lower 95.0%</t>
-  </si>
-  <si>
-    <t>Upper 95.0%</t>
   </si>
   <si>
     <t>X Variable 1</t>
@@ -118,47 +108,381 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -172,31 +496,327 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="50">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="50">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -243,7 +863,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,7 +898,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -453,25 +1073,21 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,12 +1101,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1999</v>
       </c>
       <c r="B2">
-        <v>8.1455749626647603E-2</v>
+        <v>0.0814557496266476</v>
       </c>
       <c r="C2">
         <v>1228485</v>
@@ -499,12 +1115,12 @@
         <v>969867</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>1.4393759404450801</v>
+        <v>1.43937594044508</v>
       </c>
       <c r="C3">
         <v>1447837</v>
@@ -513,12 +1129,12 @@
         <v>1075321</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2001</v>
       </c>
       <c r="B4">
-        <v>-0.76055296393218796</v>
+        <v>-0.760552963932188</v>
       </c>
       <c r="C4">
         <v>1367165</v>
@@ -527,12 +1143,12 @@
         <v>1005654</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>2002</v>
       </c>
       <c r="B5">
-        <v>0.95401574803149602</v>
+        <v>0.954015748031496</v>
       </c>
       <c r="C5">
         <v>1397660</v>
@@ -541,7 +1157,7 @@
         <v>978706</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>2003</v>
       </c>
@@ -555,12 +1171,12 @@
         <v>1020418</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>2004</v>
       </c>
       <c r="B7">
-        <v>0.18754576791869801</v>
+        <v>0.187545767918698</v>
       </c>
       <c r="C7">
         <v>1771433</v>
@@ -569,7 +1185,7 @@
         <v>1161549</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>2005</v>
       </c>
@@ -583,12 +1199,12 @@
         <v>1286022</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>2006</v>
       </c>
       <c r="B9">
-        <v>-2.31084750332184E-2</v>
+        <v>-0.0231084750332184</v>
       </c>
       <c r="C9">
         <v>2219358</v>
@@ -597,12 +1213,12 @@
         <v>1457642</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>2007</v>
       </c>
       <c r="B10">
-        <v>-2.0000866642914201</v>
+        <v>-2.00008666429142</v>
       </c>
       <c r="C10">
         <v>2358922</v>
@@ -611,7 +1227,7 @@
         <v>1653548</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>2008</v>
       </c>
@@ -625,12 +1241,12 @@
         <v>1841612</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>2009</v>
       </c>
       <c r="B12">
-        <v>3.5525965740966998</v>
+        <v>3.5525965740967</v>
       </c>
       <c r="C12">
         <v>1966827</v>
@@ -639,12 +1255,12 @@
         <v>1583053</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>2010</v>
       </c>
       <c r="B13">
-        <v>-0.13497710461430101</v>
+        <v>-0.134977104614301</v>
       </c>
       <c r="C13">
         <v>2348263</v>
@@ -653,12 +1269,12 @@
         <v>1853606</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>2011</v>
       </c>
       <c r="B14">
-        <v>-1.5476113933003299</v>
+        <v>-1.54761139330033</v>
       </c>
       <c r="C14">
         <v>2675646</v>
@@ -667,12 +1283,12 @@
         <v>2127021</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>2012</v>
       </c>
       <c r="B15">
-        <v>0.37527632858784998</v>
+        <v>0.37527632858785</v>
       </c>
       <c r="C15">
         <v>2755762</v>
@@ -682,456 +1298,461 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="2" ht="15"/>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.18321712800285211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="2">
+        <v>0.183217128002852</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
-        <v>3.3568515993613497E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="2">
+        <v>0.0335685159936135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1">
-        <v>-4.6967441006918707E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="2">
+        <v>-0.0469674410069187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
-        <v>449600.19167790737</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B7" s="2">
+        <v>449600.191677907</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:2">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" ht="15" spans="1:1">
       <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>84254924537.9814</v>
+      </c>
+      <c r="D12" s="2">
+        <v>84254924537.9814</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.416814020020792</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.530682735464661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2425683988281.73</v>
+      </c>
+      <c r="D13" s="2">
+        <v>202140332356.811</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" ht="15" spans="1:6">
+      <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="B14" s="3">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2509938912819.71</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" ht="15"/>
+    <row r="16" spans="1:9">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>84254924537.981445</v>
-      </c>
-      <c r="D12" s="1">
-        <v>84254924537.981445</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.41681402002079232</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.53068273546466127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2425683988281.7324</v>
-      </c>
-      <c r="D13" s="1">
-        <v>202140332356.81104</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2509938912819.7139</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="3" t="s">
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1450610.2847490928</v>
-      </c>
-      <c r="C17" s="1">
-        <v>120450.96929040704</v>
-      </c>
-      <c r="D17" s="1">
-        <v>12.043159912243416</v>
-      </c>
-      <c r="E17" s="1">
-        <v>4.6462480881885266E-8</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1188170.1675133007</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1713050.4019848849</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1188170.1675133007</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1713050.4019848849</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B17" s="2">
+        <v>1450610.28474909</v>
+      </c>
+      <c r="C17" s="2">
+        <v>120450.969290407</v>
+      </c>
+      <c r="D17" s="2">
+        <v>12.0431599122434</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4.64624808818853e-8</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1188170.1675133</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1713050.40198488</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1188170.1675133</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1713050.40198488</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:9">
+      <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="2">
-        <v>-60296.198326422185</v>
-      </c>
-      <c r="C18" s="2">
-        <v>93393.955947747454</v>
-      </c>
-      <c r="D18" s="2">
-        <v>-0.6456113536957041</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.53068273546465772</v>
-      </c>
-      <c r="F18" s="2">
-        <v>-263784.1477587503</v>
-      </c>
-      <c r="G18" s="2">
-        <v>143191.75110590592</v>
-      </c>
-      <c r="H18" s="2">
-        <v>-263784.1477587503</v>
-      </c>
-      <c r="I18" s="2">
-        <v>143191.75110590592</v>
+      <c r="B18" s="3">
+        <v>-60296.1983264222</v>
+      </c>
+      <c r="C18" s="3">
+        <v>93393.9559477475</v>
+      </c>
+      <c r="D18" s="3">
+        <v>-0.645611353695704</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.530682735464658</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-263784.14775875</v>
+      </c>
+      <c r="G18" s="3">
+        <v>143191.751105906</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-263784.14775875</v>
+      </c>
+      <c r="I18" s="3">
+        <v>143191.751105906</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="2" ht="15"/>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.27803631599644563</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="2">
+        <v>0.278036315996446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
-        <v>7.7304193012875375E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="2">
+        <v>0.0773041930128754</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1">
-        <v>4.1287576394832826E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="2">
+        <v>0.000412875763948328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
-        <v>523938.98282795341</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B7" s="2">
+        <v>523938.982827953</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:2">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" ht="15" spans="1:1">
       <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>275986078196.229</v>
+      </c>
+      <c r="D12" s="2">
+        <v>275986078196.229</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1.00536960190982</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.335805412186126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3294144692721.49</v>
+      </c>
+      <c r="D13" s="2">
+        <v>274512057726.79</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" ht="15" spans="1:6">
+      <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="B14" s="3">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3570130770917.71</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>275986078196.22852</v>
-      </c>
-      <c r="D12" s="1">
-        <v>275986078196.22852</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1.0053696019098188</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.33580541218612558</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3294144692721.4854</v>
-      </c>
-      <c r="D13" s="1">
-        <v>274512057726.79044</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2">
-        <v>3570130770917.7139</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
         <v>22</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>23</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>24</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>25</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>26</v>
       </c>
-      <c r="I16" t="s">
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
       <c r="B17">
-        <v>1981355.8473097589</v>
+        <v>1981355.84730976</v>
       </c>
       <c r="C17">
-        <v>140366.84035906292</v>
+        <v>140366.840359063</v>
       </c>
       <c r="D17">
         <v>14.1155549433284</v>
       </c>
       <c r="E17">
-        <v>7.7710671835632682E-9</v>
+        <v>7.77106718356327e-9</v>
       </c>
       <c r="F17">
-        <v>1675522.7746755809</v>
+        <v>1675522.77467558</v>
       </c>
       <c r="G17">
-        <v>2287188.9199439371</v>
+        <v>2287188.91994394</v>
       </c>
       <c r="H17">
-        <v>1675522.7746755809</v>
+        <v>1675522.77467558</v>
       </c>
       <c r="I17">
-        <v>2287188.9199439371</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2287188.91994394</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>28</v>
       </c>
       <c r="B18">
-        <v>-109127.91843941779</v>
+        <v>-109127.918439418</v>
       </c>
       <c r="C18">
-        <v>108836.10636135314</v>
+        <v>108836.106361353</v>
       </c>
       <c r="D18">
-        <v>-1.0026812065207091</v>
+        <v>-1.00268120652071</v>
       </c>
       <c r="E18">
-        <v>0.33580541218612414</v>
+        <v>0.335805412186124</v>
       </c>
       <c r="F18">
-        <v>-346261.42331056111</v>
+        <v>-346261.423310561</v>
       </c>
       <c r="G18">
-        <v>128005.5864317255</v>
+        <v>128005.586431726</v>
       </c>
       <c r="H18">
-        <v>-346261.42331056111</v>
+        <v>-346261.423310561</v>
       </c>
       <c r="I18">
-        <v>128005.5864317255</v>
+        <v>128005.586431726</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>